--- a/ResultadoEleicoesDistritos/LISBOA_AZAMBUJA.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_AZAMBUJA.xlsx
@@ -597,64 +597,64 @@
         <v>5307</v>
       </c>
       <c r="H2" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I2" t="n">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="J2" t="n">
-        <v>2157</v>
+        <v>2211</v>
       </c>
       <c r="K2" t="n">
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="M2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="S2" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="T2" t="n">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="U2" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="V2" t="n">
-        <v>3388</v>
+        <v>3345</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>3417</v>
+        <v>3431</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
